--- a/biology/Botanique/Madame_Pierre_Cochet/Madame_Pierre_Cochet.xlsx
+++ b/biology/Botanique/Madame_Pierre_Cochet/Madame_Pierre_Cochet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Pierre Cochet' est un cultivar de rosier obtenu en 1891 et introduit au commerce en 1892[1] par le rosiériste français Scipion Cochet (1833-1896)[2]. Il est dédié à Aimée Cochet, l'épouse du fils de l'obtenteur, Pierre Cochet (1858-1911)[3].
+'Madame Pierre Cochet' est un cultivar de rosier obtenu en 1891 et introduit au commerce en 1892 par le rosiériste français Scipion Cochet (1833-1896). Il est dédié à Aimée Cochet, l'épouse du fils de l'obtenteur, Pierre Cochet (1858-1911).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier vigoureux et sarmenteux au feuillage luisant présente des fleurs doubles jaunes (qui deviennent jaune-crème en fin de floraison) de 17 à 25 pétales. La floraison est remontante.
-Il peut être conduit en petit grimpant, car le buisson excède 200 cm de hauteur en climat doux[4]. Sa zone de rusticité est de 7b à 9b.
-Le rosier 'Madame Pierre Cochet' est issu d'un semis de 'Rêve d'Or'[2]. On peut l'admirer à la roseraie du Val-de-Marne. Malgré la beauté de ses fleurs, il est rarement présent dans les catalogues aujourd'hui.
+Il peut être conduit en petit grimpant, car le buisson excède 200 cm de hauteur en climat doux. Sa zone de rusticité est de 7b à 9b.
+Le rosier 'Madame Pierre Cochet' est issu d'un semis de 'Rêve d'Or'. On peut l'admirer à la roseraie du Val-de-Marne. Malgré la beauté de ses fleurs, il est rarement présent dans les catalogues aujourd'hui.
 </t>
         </is>
       </c>
